--- a/public/preprocessing/@smindrawatii.xlsx
+++ b/public/preprocessing/@smindrawatii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21570</v>
+        <v>25124</v>
       </c>
       <c r="C2" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['warga', 'yogyakarta', 'tewas', 'usai', 'pesta', 'minuman, keras', 'oplosan', 'yogyakarta', 'seorang', 'warga', 'kecamatan']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['warga', 'yogyakarta', 'tewas', 'pesta', 'miras', 'oplosan', 'yogyakarta', 'warga', 'kecamatan']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['warga', 'yogyakarta', 'tewas', 'pesta', 'miras', 'oplos', 'yogyakarta', 'warga', 'camat']</t>
+          <t>['warga', 'yogyakarta', 'tewas', 'pesta', 'minuman, keras', 'oplosan', 'yogyakarta', 'warga', 'kecamatan']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['warga', 'yogyakarta', 'tewas', 'pesta', 'minum keras', 'oplos', 'yogyakarta', 'warga', 'camat']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21571</v>
+        <v>25125</v>
       </c>
       <c r="C3" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,17 +538,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['partai, politik', 'tak', 'lanjut', 'verifikasi', 'badan, pengawas, pemilihan, umum', 'belum', 'ada', 'yang', 'konsultasi', 'jakarta', 'komisi, pemelihan, umum', 'meny']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['parpol', 'verifikasi', 'bawaslu', 'konsultasi', 'jakarta', 'kpu', 'meny']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['parpol', 'verifikasi', 'bawaslu', 'konsultasi', 'jakarta', 'kpu', 'meny']</t>
+          <t>['partai, politik', 'verifikasi', 'badan, pengawas, pemilihan, umum', 'konsultasi', 'jakarta', 'komisi, pemelihan, umum', 'meny']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['partai politik', 'verifikasi', 'badan awas pilih umum', 'konsultasi', 'jakarta', 'komisi pemelihan umum', 'meny']</t>
         </is>
       </c>
     </row>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21572</v>
+        <v>25126</v>
       </c>
       <c r="C4" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,17 +579,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['meski', 'harga', 'tiket', 'naik', 'pengunjung', 'tetap', 'nikmati', 'taman, mini, indonesia, indah', 'jakarta', 'pengelola', 'taman', 'mini']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['harga', 'tiket', 'pengunjung', 'nikmati', 'tmii', 'jakarta', 'pengelola', 'taman', 'mini']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['harga', 'tiket', 'unjung', 'nikmat', 'tmii', 'jakarta', 'kelola', 'taman', 'mini']</t>
+          <t>['harga', 'tiket', 'pengunjung', 'nikmati', 'taman, mini, indonesia, indah', 'jakarta', 'pengelola', 'taman', 'mini']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['harga', 'tiket', 'unjung', 'nikmat', 'taman mini indonesia indah', 'jakarta', 'kelola', 'taman', 'mini']</t>
         </is>
       </c>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21573</v>
+        <v>25127</v>
       </c>
       <c r="C5" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,15 +620,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['jenderal', 'cek', 'pelabuhan', 'ketapang', 'pelabuhan', 'penyeberangan', 'asdp', 'ketapang', 'menjadi', 'atens']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['jenderal', 'cek', 'pelabuhan', 'ketapang', 'pelabuhan', 'penyeberangan', 'asdp', 'ketapang', 'atens']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['jenderal', 'cek', 'labuh', 'ketapang', 'labuh', 'seberang', 'asdp', 'ketapang', 'atens']</t>
         </is>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21574</v>
+        <v>25128</v>
       </c>
       <c r="C6" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['saat', 'kepala, kepolisian, daerah', 'sulawesi, selatan', 'ikut', 'gali', 'dan', 'kuburkan', 'pegawainya', 'yang', 'meninggal', 'makassar', 'kapol']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['kapolda', 'sulsel', 'gali', 'kuburkan', 'pegawainya', 'meninggal', 'makassar', 'kapol']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['kapolda', 'sulsel', 'gali', 'kubur', 'pegawai', 'tinggal', 'makassar', 'kapol']</t>
+          <t>['kepala, kepolisian, daerah', 'sulawesi, selatan', 'gali', 'kuburkan', 'pegawainya', 'meninggal', 'makassar', 'kapol']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['kepala polisi daerah', 'sulawesi selatan', 'gali', 'kubur', 'pegawai', 'tinggal', 'makassar', 'kapol']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21575</v>
+        <v>25129</v>
       </c>
       <c r="C7" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['terkait', 'pembunuhan', 'anggotanya', 'pangdam', 'kami', 'serahkan', 'ke', 'polisi', 'banyuwangi', 'terkait']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['terkait', 'pembunuhan', 'anggotanya', 'pangdam', 'serahkan', 'polisi', 'banyuwangi', 'terkait']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['kait', 'bunuh', 'anggota', 'pangdam', 'serah', 'polisi', 'banyuwangi', 'kait']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21576</v>
+        <v>25130</v>
       </c>
       <c r="C8" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,15 +743,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['menanti', 'pembiayaan', 'kreatif', 'infrastruktur', 'jakarta', 'antara', 'news', 'memasuki', 'tahun', 'ketig']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['pembiayaan', 'kreatif', 'infrastruktur', 'jakarta', 'news', 'memasuki', 'ketig']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['biaya', 'kreatif', 'infrastruktur', 'jakarta', 'news', 'pasuk', 'ketig']</t>
         </is>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21577</v>
+        <v>25131</v>
       </c>
       <c r="C9" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,15 +784,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['begini', 'pengakuan', 'pengunggah', 'video', 'dua', 'pria', 'kakak', 'beradik', 'di', 'kalibata', 'usai', 'videonya', 'viral']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['pengakuan', 'pengunggah', 'video', 'pria', 'kakak', 'beradik', 'kalibata', 'videonya', 'viral']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['aku', 'unggah', 'video', 'pria', 'kakak', 'adik', 'kalibata', 'video', 'viral']</t>
         </is>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21578</v>
+        <v>25132</v>
       </c>
       <c r="C10" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['prabowo', 'dan', 'gerindra', 'mengungguli', 'jokowi', 'di', 'survei', 'ini', 'jakarta', 'pos', 'kota', 'prabowo', 'subiant']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['prabowo', 'gerindra', 'ungguli', 'jokowi', 'survei', 'jakarta', 'pos', 'kota', 'prabowo', 'subiant']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>['prabowo', 'gerindra', 'mengungguli', 'jokowi', 'survei', 'jakarta', 'pos', 'kota', 'prabowo', 'subiant']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>['prabowo', 'gerindra', 'unggul', 'jokowi', 'survei', 'jakarta', 'pos', 'kota', 'prabowo', 'subiant']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21579</v>
+        <v>25133</v>
       </c>
       <c r="C11" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,17 +866,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['ncw', 'heru', 'pambudi', 'lindungi', 'oknum', 'korup', 'di', 'bea', 'dan', 'cukai', 'rakyat, merdeka, on, line', 'nasional', 'corupption', 'buat']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['ncw', 'heru', 'pambudi', 'lindungi', 'oknum', 'korup', 'bea', 'cukai', 'rmol', 'nasional', 'corupption', 'wat']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['ncw', 'heru', 'pambudi', 'lindung', 'oknum', 'korup', 'bea', 'cukai', 'rmol', 'nasional', 'corupption', 'wat']</t>
+          <t>['ncw', 'heru', 'pambudi', 'lindungi', 'oknum', 'korup', 'bea', 'cukai', 'rakyat, merdeka, on, line', 'nasional', 'corupption']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['ncw', 'heru', 'pambudi', 'lindung', 'oknum', 'korup', 'bea', 'cukai', 'rakyat merdeka on line', 'nasional', 'corupption']</t>
         </is>
       </c>
     </row>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21580</v>
+        <v>25134</v>
       </c>
       <c r="C12" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,17 +907,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['terindikasi', 'kkn', 'direktur, jenderal', 'bea', 'dan', 'cukai', 'perlu', 'direformasi', 'rakyat, merdeka, on, line', 'nasional', 'corruption', 'buat']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['terindikasi', 'kkn', 'dirjen', 'bea', 'cukai', 'direformasi', 'rmol', 'nasional', 'corruption', 'wat']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['indikasi', 'kkn', 'dirjen', 'bea', 'cukai', 'reformasi', 'rmol', 'nasional', 'corruption', 'wat']</t>
+          <t>['terindikasi', 'kkn', 'direktur, jenderal', 'bea', 'cukai', 'direformasi', 'rakyat, merdeka, on, line', 'nasional', 'corruption']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['indikasi', 'kkn', 'direktur jenderal', 'bea', 'cukai', 'reformasi', 'rakyat merdeka on line', 'nasional', 'corruption']</t>
         </is>
       </c>
     </row>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21581</v>
+        <v>25135</v>
       </c>
       <c r="C13" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['penerimaan', 'tidak', 'sesuai', 'jokowi', 'perlu', 'rombak', 'direktorat, jenderal', 'bea', 'dan', 'cukai', 'rakyat, merdeka, on, line', 'nasional', 'corr']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['penerimaan', 'sesuai', 'jokowi', 'rombak', 'ditjen', 'bea', 'cukai', 'rmol', 'nasional', 'corr']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['terima', 'sesuai', 'jokowi', 'rombak', 'ditjen', 'bea', 'cukai', 'rmol', 'nasional', 'corr']</t>
+          <t>['penerimaan', 'sesuai', 'jokowi', 'rombak', 'direktorat, jenderal', 'bea', 'cukai', 'rakyat, merdeka, on, line', 'nasional', 'corr']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['terima', 'sesuai', 'jokowi', 'rombak', 'direktorat jenderal', 'bea', 'cukai', 'rakyat merdeka on line', 'nasional', 'corr']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21582</v>
+        <v>25136</v>
       </c>
       <c r="C14" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,17 +989,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['jelang', 'pemilihan, umum', 'dan', 'pemilihan, presiden', 'survei', 'lembaga, kajian, pemilu, indonesia', 'nama', 'prabowo', 'kembali', 'mencuat', 'sodok', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['jelang', 'pemilu', 'pilpres', 'survei', 'lkpi', 'nama', 'prabowo', 'mencuat', 'sodok', 'jokowi']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['jelang', 'milu', 'pilpres', 'survei', 'lkpi', 'nama', 'prabowo', 'cuat', 'sodok', 'jokowi']</t>
+          <t>['jelang', 'pemilihan, umum', 'pemilihan, presiden', 'survei', 'lembaga, kajian, pemilu, indonesia', 'nama', 'prabowo', 'mencuat', 'sodok', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['jelang', 'pilih umum', 'pilih presiden', 'survei', 'lembaga kaji milu indonesia', 'nama', 'prabowo', 'cuat', 'sodok', 'jokowi']</t>
         </is>
       </c>
     </row>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21583</v>
+        <v>25137</v>
       </c>
       <c r="C15" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,15 +1030,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['prabowo', 'masih', 'mengungguli', 'jokowi', 'nama', 'gatot', 'nurmantyo', 'terus', 'mencuat', 'nama', 'presiden', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['prabowo', 'ungguli', 'jokowi', 'nama', 'gatot', 'nurmantyo', 'mencuat', 'nama', 'presiden', 'jokowi']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>['prabowo', 'mengungguli', 'jokowi', 'nama', 'gatot', 'nurmantyo', 'mencuat', 'nama', 'presiden', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>['prabowo', 'unggul', 'jokowi', 'nama', 'gatot', 'nurmantyo', 'cuat', 'nama', 'presiden', 'jokowi']</t>
         </is>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21584</v>
+        <v>25138</v>
       </c>
       <c r="C16" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,15 +1071,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['peringkat', 'fitch', 'momentum', 'pemerintah', 'tarik', 'utang', 'awal', 'tahun', 'analisis', 'agustiyanti', 'cn']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['peringkat', 'fitch', 'momentum', 'pemerintah', 'tarik', 'utang', 'analisis', 'agustiyanti', 'cn']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['peringkat', 'fitch', 'momentum', 'perintah', 'tarik', 'utang', 'analisis', 'agustiyanti', 'cn']</t>
         </is>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21585</v>
+        <v>25139</v>
       </c>
       <c r="C17" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,17 +1112,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['elektabilitas', 'jokowi', 'melorot', 'jelang', 'pemilihan, presiden', 'sumedang', 'media', 'jakarta', 'lembaga', 'kakak']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['elektabilitas', 'jokowi', 'melorot', 'jelang', 'pilpres', 'sumedang', 'media', 'jakarta', 'lembaga', 'ka']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['elektabilitas', 'jokowi', 'lorot', 'jelang', 'pilpres', 'sumedang', 'media', 'jakarta', 'lembaga', 'ka']</t>
+          <t>['elektabilitas', 'jokowi', 'melorot', 'jelang', 'pemilihan, presiden', 'sumedang', 'media', 'jakarta', 'lembaga', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['elektabilitas', 'jokowi', 'lorot', 'jelang', 'pilih presiden', 'sumedang', 'media', 'jakarta', 'lembaga', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21586</v>
+        <v>25140</v>
       </c>
       <c r="C18" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,17 +1153,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['jokowi', 'melorot', 'prabowo', 'dan', 'gerindra', 'terus', 'melejit', 'disusul', 'gatot', 'rakyat, merdeka, on, line', 'partai', 'gerindr']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['jokowi', 'melorot', 'prabowo', 'gerindra', 'melejit', 'disusul', 'gatot', 'rmol', 'partai', 'gerindr']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['jokowi', 'lorot', 'prabowo', 'gerindra', 'lejit', 'susul', 'gatot', 'rmol', 'partai', 'gerindr']</t>
+          <t>['jokowi', 'melorot', 'prabowo', 'gerindra', 'melejit', 'disusul', 'gatot', 'rakyat, merdeka, on, line', 'partai', 'gerindr']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['jokowi', 'lorot', 'prabowo', 'gerindra', 'lejit', 'susul', 'gatot', 'rakyat merdeka on line', 'partai', 'gerindr']</t>
         </is>
       </c>
     </row>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21587</v>
+        <v>25141</v>
       </c>
       <c r="C19" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,17 +1194,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['tahun', 'tsunami', 'aceh', 'jika', 'kenang', 'keluarkan', 'fatwa', 'soal', 'jenazah', 'korban', 'jakarta', 'pada']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['tsunami', 'aceh', 'jk', 'kenang', 'keluarkan', 'fatwa', 'jenazah', 'korban', 'jakarta']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['tsunami', 'aceh', 'jk', 'kenang', 'keluar', 'fatwa', 'jenazah', 'korban', 'jakarta']</t>
+          <t>['tsunami', 'aceh', 'kenang', 'keluarkan', 'fatwa', 'jenazah', 'korban', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['tsunami', 'aceh', 'kenang', 'keluar', 'fatwa', 'jenazah', 'korban', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21588</v>
+        <v>25142</v>
       </c>
       <c r="C20" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,15 +1235,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['catatan', 'kaki', 'atas', 'kenaikan', 'kemudahan', 'bisnis', 'dan', 'investasi', 'keberhasilan', 'indonesia', 'mena']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>['catatan', 'kaki', 'kenaikan', 'kemudahan', 'bisnis', 'investasi', 'keberhasilan', 'indonesia', 'mena']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['catat', 'kaki', 'naik', 'mudah', 'bisnis', 'investasi', 'hasil', 'indonesia', 'mena']</t>
         </is>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21589</v>
+        <v>25143</v>
       </c>
       <c r="C21" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,15 +1276,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['opini', 'bangsa', 'pernyataan', 'sri', 'mulyani', 'jadi', 'bukti', 'kinerja', 'peneliti', 'asosiasi', 'ekonomi']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['opini', 'bangsa', 'pernyataan', 'sri', 'mulyani', 'bukti', 'kinerja', 'peneliti', 'asosiasi', 'ekonomi']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['opini', 'bangsa', 'nyata', 'sri', 'mulyani', 'bukti', 'kerja', 'teliti', 'asosiasi', 'ekonomi']</t>
         </is>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21590</v>
+        <v>25144</v>
       </c>
       <c r="C22" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,15 +1317,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['urbanisasi', 'dana', 'desa', 'dan', 'pertumbuhan', 'ekonomi', 'candra', 'fajri', 'ananda', 'fotoistimewa', 'can']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['urbanisasi', 'dana', 'desa', 'pertumbuhan', 'ekonomi', 'candra', 'fajri', 'ananda', 'fotoistimewa', 'can']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['urbanisasi', 'dana', 'desa', 'tumbuh', 'ekonomi', 'candra', 'fajri', 'ananda', 'fotoistimewa', 'can']</t>
         </is>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21591</v>
+        <v>25145</v>
       </c>
       <c r="C23" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['presiden', 'cuma', 'pakai', 'gaya', 'pedagang', 'mebel', 'dalam', 'mengelola', 'keuangan', 'desember']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['presiden', 'pakai', 'gaya', 'pedagang', 'mebel', 'mengelola', 'keuangan', 'desember']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['presiden', 'pakai', 'gaya', 'dagang', 'mebel', 'kelola', 'uang', 'desember']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21592</v>
+        <v>25146</v>
       </c>
       <c r="C24" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,17 +1399,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['catatan', 'sri', 'mulyani', 'perjalanan', 'anggaran, pendapatan, dan, belanja, negara', 'punya', 'cerita', 'tersendiri', 'jurnalpatrolinews']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['catatan', 'sri', 'mulyani', 'perjalanan', 'apbn', 'cerita', 'tersendiri', 'jurnalpatrolinews']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['catat', 'sri', 'mulyani', 'jalan', 'apbn', 'cerita', 'sendiri', 'jurnalpatrolinews']</t>
+          <t>['catatan', 'sri', 'mulyani', 'perjalanan', 'anggaran, pendapatan, dan, belanja, negara', 'cerita', 'tersendiri', 'jurnalpatrolinews']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['catat', 'sri', 'mulyani', 'jalan', 'anggar dapat dan belanja negara', 'cerita', 'sendiri', 'jurnalpatrolinews']</t>
         </is>
       </c>
     </row>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21593</v>
+        <v>25147</v>
       </c>
       <c r="C25" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,15 +1440,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['sevel', 'matahari', 'hingga', 'debenhams', 'tutup', 'gerai', 'di', 'jakarta', 'menjadi', 'tahun', 'ya']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>['sevel', 'matahari', 'debenhams', 'tutup', 'gerai', 'jakarta']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['sevel', 'matahari', 'debenhams', 'tutup', 'gerai', 'jakarta']</t>
         </is>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21594</v>
+        <v>25148</v>
       </c>
       <c r="C26" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,15 +1481,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['defisit', 'kok', 'dibilang', 'stabil', 'sri', 'mulyani', 'belajar', 'ekonomi', 'dari', 'mana', 'konfrontasiperny']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>['defisit', 'dibilang', 'stabil', 'sri', 'mulyani', 'belajar', 'ekonomi', 'konfrontasiperny']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['defisit', 'bilang', 'stabil', 'sri', 'mulyani', 'ajar', 'ekonomi', 'konfrontasiperny']</t>
         </is>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21595</v>
+        <v>25149</v>
       </c>
       <c r="C27" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,17 +1522,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['jelang', 'akhir', 'tahun', 'persediaan', 'logistik', 'di', 'tangerang', 'dijamin', 'aman', 'tangerang', 'mau', 'men']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['jelang', 'persediaan', 'logistik', 'tangerang', 'dijamin', 'aman', 'tangerang', 'mo', 'men']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['jelang', 'sedia', 'logistik', 'tangerang', 'jamin', 'aman', 'tangerang', 'mo', 'men']</t>
+          <t>['jelang', 'persediaan', 'logistik', 'tangerang', 'dijamin', 'aman', 'tangerang', 'men']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['jelang', 'sedia', 'logistik', 'tangerang', 'jamin', 'aman', 'tangerang', 'men']</t>
         </is>
       </c>
     </row>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21596</v>
+        <v>25150</v>
       </c>
       <c r="C28" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,17 +1563,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['ingat', 'video', 'pria', 'bermesraan', 'di', 'atas', 'motor', 'yang', 'heboh', 'sayang']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['video', 'pria', 'bermesraan', 'motor', 'heboh', 'beb']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['video', 'pria', 'mesra', 'motor', 'heboh', 'beb']</t>
+          <t>['video', 'pria', 'bermesraan', 'motor', 'heboh', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['video', 'pria', 'mesra', 'motor', 'heboh', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21597</v>
+        <v>25151</v>
       </c>
       <c r="C29" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,17 +1604,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['gerindra', 'kelola', 'uang', 'negara', 'jokowi', 'pakai', 'gaya', 'pedagang', 'mebel', 'rakyat, merdeka, on, line', 'pemerintah', 'dalam']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['gerindra', 'kelola', 'uang', 'negara', 'jokowi', 'pakai', 'gaya', 'pedagang', 'mebel', 'rmol', 'pemerintah']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['gerindra', 'kelola', 'uang', 'negara', 'jokowi', 'pakai', 'gaya', 'dagang', 'mebel', 'rmol', 'perintah']</t>
+          <t>['gerindra', 'kelola', 'uang', 'negara', 'jokowi', 'pakai', 'gaya', 'pedagang', 'mebel', 'rakyat, merdeka, on, line', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['gerindra', 'kelola', 'uang', 'negara', 'jokowi', 'pakai', 'gaya', 'dagang', 'mebel', 'rakyat merdeka on line', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21598</v>
+        <v>25152</v>
       </c>
       <c r="C30" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,15 +1645,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['sepak', 'terjang', 'susi', 'berantas', 'maling', 'ikan', 'hingga', 'dipanggil', 'jokowi', 'jakarta', 'sosok', 'mente']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['sepak', 'terjang', 'susi', 'berantas', 'maling', 'ikan', 'dipanggil', 'jokowi', 'jakarta', 'sosok', 'mente']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['sepak', 'terjang', 'sus', 'berantas', 'maling', 'ikan', 'panggil', 'jokowi', 'jakarta', 'sosok', 'mente']</t>
         </is>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21599</v>
+        <v>25153</v>
       </c>
       <c r="C31" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,15 +1686,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['diduga', 'gay', 'ini', 'klarifikasi', 'soal', 'video', 'dua', 'pria', 'berpelukan', 'di', 'jalan', 'beberapa', 'hari', 'lal']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['diduga', 'gay', 'klarifikasi', 'video', 'pria', 'berpelukan', 'jalan', 'lal']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['duga', 'gay', 'klarifikasi', 'video', 'pria', 'peluk', 'jalan', 'lal']</t>
         </is>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21600</v>
+        <v>25154</v>
       </c>
       <c r="C32" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,15 +1727,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['ingat', 'video', 'pria', 'bermesraan', 'di', 'atas', 'motor', 'yang', 'heboh', 'ini', 'ternyata', 'penjelasannya', 'siapa']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>['video', 'pria', 'bermesraan', 'motor', 'heboh', 'penjelasannya']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['video', 'pria', 'mesra', 'motor', 'heboh', 'jelas']</t>
         </is>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21601</v>
+        <v>25155</v>
       </c>
       <c r="C33" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,17 +1768,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['pernyataan', 'sri', 'mulyani', 'jadi', 'bukti', 'kinerja', 'ekonomi', 'pemerintah', 'jokowi', 'buruk', 'rakyat, merdeka, on, line', 'penel']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['pernyataan', 'sri', 'mulyani', 'bukti', 'kinerja', 'ekonomi', 'pemerintah', 'jokowi', 'buruk', 'rmol', 'penel']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['nyata', 'sri', 'mulyani', 'bukti', 'kerja', 'ekonomi', 'perintah', 'jokowi', 'buruk', 'rmol', 'tel']</t>
+          <t>['pernyataan', 'sri', 'mulyani', 'bukti', 'kinerja', 'ekonomi', 'pemerintah', 'jokowi', 'buruk', 'rakyat, merdeka, on, line', 'penel']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['nyata', 'sri', 'mulyani', 'bukti', 'kerja', 'ekonomi', 'perintah', 'jokowi', 'buruk', 'rakyat merdeka on line', 'tel']</t>
         </is>
       </c>
     </row>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21602</v>
+        <v>25156</v>
       </c>
       <c r="C34" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,17 +1809,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['perjalanan', 'anggaran, pendapatan, dan, belanja, negara', 'disusun', 'menteri', 'jakarta', 'anggaran', 'pendapatan', 'dan', 'belanja', 'tega']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['perjalanan', 'apbn', 'disusun', 'menteri', 'jakarta', 'anggaran', 'pendapatan', 'belanja', 'nega']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['jalan', 'apbn', 'susun', 'menteri', 'jakarta', 'anggar', 'dapat', 'belanja', 'nega']</t>
+          <t>['perjalanan', 'anggaran, pendapatan, dan, belanja, negara', 'disusun', 'menteri', 'jakarta', 'anggaran', 'pendapatan', 'belanja', 'tega']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['jalan', 'anggar dapat dan belanja negara', 'susun', 'menteri', 'jakarta', 'anggar', 'dapat', 'belanja', 'tega']</t>
         </is>
       </c>
     </row>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21603</v>
+        <v>25157</v>
       </c>
       <c r="C35" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,17 +1850,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['anak', 'buah', 'prabowo', 'defisit', 'kok', 'stabil', 'sri', 'mulyani', 'belajar', 'dimana', 'rakyat, merdeka, on, line', 'pernyataan']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['anak', 'buah', 'prabowo', 'defisit', 'stabil', 'sri', 'mulyani', 'belajar', 'dimana', 'rmol', 'pernyataan']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['anak', 'buah', 'prabowo', 'defisit', 'stabil', 'sri', 'mulyani', 'ajar', 'mana', 'rmol', 'nyata']</t>
+          <t>['anak', 'buah', 'prabowo', 'defisit', 'stabil', 'sri', 'mulyani', 'belajar', 'dimana', 'rakyat, merdeka, on, line', 'pernyataan']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['anak', 'buah', 'prabowo', 'defisit', 'stabil', 'sri', 'mulyani', 'ajar', 'mana', 'rakyat merdeka on line', 'nyata']</t>
         </is>
       </c>
     </row>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21604</v>
+        <v>25158</v>
       </c>
       <c r="C36" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,15 +1891,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['berakhirnya', 'program', 'pengampunan', 'pajak', 'jokowi', 'di', 'acara', 'tax', 'amnesti', 'pajak', 'foto']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['program', 'pengampunan', 'pajak', 'jokowi', 'acara', 'tax', 'amnesti', 'pajak', 'foto']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['program', 'ampun', 'pajak', 'jokowi', 'acara', 'tax', 'amnesti', 'pajak', 'foto']</t>
         </is>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21605</v>
+        <v>25159</v>
       </c>
       <c r="C37" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,15 +1932,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['come', 'back', 'sri', 'mulyani', 'jadi', 'menteri', 'keuangan', 'jakarta', 'perekonomian', 'indonesia', 'mendekat']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>['come', 'back', 'sri', 'mulyani', 'menteri', 'keuangan', 'jakarta', 'perekonomian', 'indonesia', 'mendekat']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>['come', 'back', 'sri', 'mulyani', 'menteri', 'uang', 'jakarta', 'ekonomi', 'indonesia', 'dekat']</t>
         </is>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21606</v>
+        <v>25160</v>
       </c>
       <c r="C38" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,15 +1973,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['keren', 'pria', 'ini', 'buat', 'jembatan', 'dari', 'akar', 'hidup', 'jakarta', 'jika', 'anda', 'pergi', 'ke', 'hutan', 'di']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>['keren', 'pria', 'jembatan', 'akar', 'hidup', 'jakarta', 'pergi', 'hutan']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>['keren', 'pria', 'jembatan', 'akar', 'hidup', 'jakarta', 'pergi', 'hutan']</t>
         </is>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21607</v>
+        <v>25161</v>
       </c>
       <c r="C39" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,17 +2014,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['kilas', 'balik', 'tunduknya', 'freeport', 'beri', 'persen', 'saham', 'ke', 'pemerintah', 'perseroan, terbatas, freeport, indonesia', 'setuju', 'melepas']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['kilas', 'tunduknya', 'freeport', 'persen', 'saham', 'pemerintah', 'ptfi', 'setuju', 'melepas']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['kilas', 'tunduk', 'freeport', 'persen', 'saham', 'perintah', 'ptfi', 'tuju', 'lepas']</t>
+          <t>['kilas', 'tunduknya', 'freeport', 'persen', 'saham', 'pemerintah', 'perseroan, terbatas, freeport, indonesia', 'setuju', 'melepas']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['kilas', 'tunduk', 'freeport', 'persen', 'saham', 'perintah', 'persero batas freeport indonesia', 'tuju', 'lepas']</t>
         </is>
       </c>
     </row>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21608</v>
+        <v>25162</v>
       </c>
       <c r="C40" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['geram', 'melihat', 'pria', 'bermesraan', 'di', 'jalan', 'wanita', 'ini', 'berani', 'menegur', 'foto', 'dan', 'video', 'in']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['geram', 'pria', 'bermesraan', 'jalan', 'wanita', 'berani', 'menegur', 'foto', 'video', 'in']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['geram', 'pria', 'mesra', 'jalan', 'wanita', 'berani', 'tegur', 'foto', 'video', 'in']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21609</v>
+        <v>25163</v>
       </c>
       <c r="C41" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,17 +2096,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['sri', 'mulyani', 'info', 'prioritas', 'semenjak', 'trump', 'mengumandangkan', 'pernyataan', 'tegas', 'akan', 'meng']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['sri', 'mulyani', 'info', 'prioritas', 'semenjak', 'trump', 'mengumandangkan', 'statement', 'meng']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['sri', 'mulyani', 'info', 'prioritas', 'semenjak', 'trump', 'kumandang', 'statement', 'meng']</t>
+          <t>['sri', 'mulyani', 'info', 'prioritas', 'semenjak', 'trump', 'mengumandangkan', 'pernyataan', 'meng']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['sri', 'mulyani', 'info', 'prioritas', 'semenjak', 'trump', 'kumandang', 'nyata', 'meng']</t>
         </is>
       </c>
     </row>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21610</v>
+        <v>25164</v>
       </c>
       <c r="C42" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,17 +2137,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['kaledioskop', 'jawaban', 'daya', 'beli', 'merosot', 'atau', 'ritel', 'lesu', 'sejumlah', 'pengunjung', 'antar']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['kaledioskop', 'daya', 'beli', 'merosot', 'ritel', 'lesu', 'pengunjung', 'antr']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['kaledioskop', 'daya', 'beli', 'merosot', 'ritel', 'lesu', 'unjung', 'antr']</t>
+          <t>['kaledioskop', 'daya', 'beli', 'merosot', 'ritel', 'lesu', 'pengunjung']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['kaledioskop', 'daya', 'beli', 'merosot', 'ritel', 'lesu', 'unjung']</t>
         </is>
       </c>
     </row>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21611</v>
+        <v>25165</v>
       </c>
       <c r="C43" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,15 +2178,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['video', 'viral', 'dua', 'pria', 'bermesraan', 'di', 'jalan', 'sri', 'mulyani', 'posting', 'permintaan', 'maaf', 'berita', 'unik']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['video', 'viral', 'pria', 'bermesraan', 'jalan', 'sri', 'mulyani', 'posting', 'permintaan', 'maaf', 'berita', 'unik']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['video', 'viral', 'pria', 'mesra', 'jalan', 'sri', 'mulyani', 'posting', 'minta', 'maaf', 'berita', 'unik']</t>
         </is>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21612</v>
+        <v>25166</v>
       </c>
       <c r="C44" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,15 +2219,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['sejumlah', 'menteri', 'kunjungi', 'pembangunan', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'sejumlah', 'ment']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>['menteri', 'kunjungi', 'pembangunan', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'ment']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>['menteri', 'kunjung', 'bangun', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'ment']</t>
         </is>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21613</v>
+        <v>25167</v>
       </c>
       <c r="C45" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,15 +2260,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['viral', 'protes', 'pria', 'ke', 'sri', 'mulyani', 'karena', 'koper', 'ditahan', 'bea', 'cukai', 'postingan', 'dari', 'akun']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>['viral', 'protes', 'pria', 'sri', 'mulyani', 'koper', 'ditahan', 'bea', 'cukai', 'postingan', 'akun']</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>['viral', 'protes', 'pria', 'sri', 'mulyani', 'koper', 'tahan', 'bea', 'cukai', 'postingan', 'akun']</t>
         </is>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21614</v>
+        <v>25168</v>
       </c>
       <c r="C46" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,17 +2301,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['heboh', 'video', 'ibu', 'tegur', 'pria', 'bermesraan', 'di', 'tengah', 'jalan', 'warganet', 'ungkap', 'fakta', 'sebenarnya']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['heboh', 'video', 'tegur', 'pria', 'bermesraan', 'jalan', 'netizen', 'fakta']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['heboh', 'video', 'tegur', 'pria', 'mesra', 'jalan', 'netizen', 'fakta']</t>
+          <t>['heboh', 'video', 'tegur', 'pria', 'bermesraan', 'jalan', 'warganet', 'fakta']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['heboh', 'video', 'tegur', 'pria', 'mesra', 'jalan', 'warganet', 'fakta']</t>
         </is>
       </c>
     </row>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21615</v>
+        <v>25169</v>
       </c>
       <c r="C47" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,15 +2342,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['video', 'viral', 'dua', 'pria', 'bermesraan', 'di', 'jalan', 'sri', 'mulyani', 'posting', 'permintaan', 'maaf']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['video', 'viral', 'pria', 'bermesraan', 'jalan', 'sri', 'mulyani', 'posting', 'permintaan', 'maaf']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['video', 'viral', 'pria', 'mesra', 'jalan', 'sri', 'mulyani', 'posting', 'minta', 'maaf']</t>
         </is>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21616</v>
+        <v>25170</v>
       </c>
       <c r="C48" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,17 +2383,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['saat', 'sri', 'mulyani', 'dan', 'gubernur', 'bi', 'swafoto', 'berlatar', 'gunung', 'agung', 'sri', 'mulyani', 'foto', 'inst']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['sri', 'mulyani', 'gubernur', 'bi', 'selfie', 'berlatar', 'gunung', 'agung', 'sri', 'mulyani', 'foto', 'inst']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['sri', 'mulyani', 'gubernur', 'bi', 'selfie', 'latar', 'gunung', 'agung', 'sri', 'mulyani', 'foto', 'inst']</t>
+          <t>['sri', 'mulyani', 'gubernur', 'bi', 'swafoto', 'berlatar', 'gunung', 'agung', 'sri', 'mulyani', 'foto', 'inst']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['sri', 'mulyani', 'gubernur', 'bi', 'swafoto', 'latar', 'gunung', 'agung', 'sri', 'mulyani', 'foto', 'inst']</t>
         </is>
       </c>
     </row>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21617</v>
+        <v>25171</v>
       </c>
       <c r="C49" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,17 +2424,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['menangkal', 'hoaks', 'dari', 'beredarnya', 'surat', 'sri', 'mulyani', 'soal', 'utang', 'perusahaan, listrik, negara', 'sri', 'mulyani', 'foto', 'fa']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['menangkal', 'hoax', 'beredarnya', 'surat', 'sri', 'mulyani', 'utang', 'pln', 'sri', 'mulyani', 'foto', 'fa']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['tangkal', 'hoax', 'edar', 'surat', 'sri', 'mulyani', 'utang', 'pln', 'sri', 'mulyani', 'foto', 'fa']</t>
+          <t>['menangkal', 'hoaks', 'beredarnya', 'surat', 'sri', 'mulyani', 'utang', 'perusahaan, listrik, negara', 'sri', 'mulyani', 'foto', 'fa']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['tangkal', 'hoaks', 'edar', 'surat', 'sri', 'mulyani', 'utang', 'usaha listrik negara', 'sri', 'mulyani', 'foto', 'fa']</t>
         </is>
       </c>
     </row>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21618</v>
+        <v>25172</v>
       </c>
       <c r="C50" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,15 +2465,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['indonesia', 'tak', 'gentar', 'dengan', 'ancaman', 'amerika', 'serikat', 'soal', 'dukungannya', 'terhadap', 'palestina']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['indonesia', 'gentar', 'ancaman', 'amerika', 'serikat', 'dukungannya', 'palestina']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['indonesia', 'gentar', 'ancam', 'amerika', 'serikat', 'dukung', 'palestina']</t>
         </is>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21619</v>
+        <v>25173</v>
       </c>
       <c r="C51" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,17 +2506,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['pembangunan', 'light, rail, transit', 'bukti', 'komitmen', 'pemerintah', 'membangun', 'indonesia', 'menteri', 'perhubungan', 'bu']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['pembangunan', 'lrt', 'bukti', 'komitmen', 'pemerintah', 'membangun', 'indonesia', 'menteri', 'perhubungan', 'bu']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['bangun', 'lrt', 'bukti', 'komitmen', 'perintah', 'bangun', 'indonesia', 'menteri', 'hubung', 'bu']</t>
+          <t>['pembangunan', 'light, rail, transit', 'bukti', 'komitmen', 'pemerintah', 'membangun', 'indonesia', 'menteri', 'perhubungan', 'bu']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['bangun', 'light rail transit', 'bukti', 'komitmen', 'perintah', 'bangun', 'indonesia', 'menteri', 'hubung', 'bu']</t>
         </is>
       </c>
     </row>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21620</v>
+        <v>25174</v>
       </c>
       <c r="C52" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,15 +2547,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['hobi', 'sri', 'mulyani', 'saat', 'pimpin', 'sidang', 'di', 'bank', 'dunia', 'sri', 'mulyani', 'menuturkan', 'jika', 'dirinya']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>['hobi', 'sri', 'mulyani', 'pimpin', 'sidang', 'bank', 'dunia', 'sri', 'mulyani']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>['hobi', 'sri', 'mulyani', 'pimpin', 'sidang', 'bank', 'dunia', 'sri', 'mulyani']</t>
         </is>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21621</v>
+        <v>25175</v>
       </c>
       <c r="C53" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,15 +2588,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['video', 'dua', 'pria', 'diduga', 'penyuka', 'sesama', 'jenis', 'bermesraan', 'di', 'atas', 'motor', 'viral', 'begini', 'reaksi']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>['video', 'pria', 'diduga', 'penyuka', 'jenis', 'bermesraan', 'motor', 'viral', 'reaksi']</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>['video', 'pria', 'duga', 'suka', 'jenis', 'mesra', 'motor', 'viral', 'reaksi']</t>
         </is>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21622</v>
+        <v>25176</v>
       </c>
       <c r="C54" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,15 +2629,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['sri', 'mulyani', 'tim', 'imfworld', 'bank', 'akan', 'pantau', 'gunung', 'agung', 'dan', 'bali', 'batamproid', 'ment']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>['sri', 'mulyani', 'tim', 'imfworld', 'bank', 'pantau', 'gunung', 'agung', 'bali', 'batamproid', 'ment']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>['sri', 'mulyani', 'tim', 'imfworld', 'bank', 'pantau', 'gunung', 'agung', 'bal', 'batamproid', 'ment']</t>
         </is>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21623</v>
+        <v>25177</v>
       </c>
       <c r="C55" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,15 +2670,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['trump', 'ancam', 'potong', 'dana', 'hibah', 'ini', 'kata', 'menkeu', 'konfrontasi', 'menteri', 'keuangan', 'sri', 'mu']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>['trump', 'ancam', 'potong', 'dana', 'hibah', 'menkeu', 'konfrontasi', 'menteri', 'keuangan', 'sri', 'mu']</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>['trump', 'ancam', 'potong', 'dana', 'hibah', 'menkeu', 'konfrontasi', 'menteri', 'uang', 'sri', 'mu']</t>
         </is>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21624</v>
+        <v>25178</v>
       </c>
       <c r="C56" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,15 +2711,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['acara', 'imfwb', 'meeting', 'ditentukan', 'gunung', 'agung', 'inilahcom', 'jakarta', 'menteri', 'keuang']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['acara', 'imfwb', 'meeting', 'ditentukan', 'gunung', 'agung', 'inilahcom', 'jakarta', 'menteri', 'keuang']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['acara', 'imfwb', 'meeting', 'tentu', 'gunung', 'agung', 'inilahcom', 'jakarta', 'menteri', 'uang']</t>
         </is>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21625</v>
+        <v>25179</v>
       </c>
       <c r="C57" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,15 +2752,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['english', 'lowongan', 'tenaga', 'magang', 'bidan', 'klinik', 'bersalin', 'bidan', 'sri', 'mulyani', 'maaf', 'kont']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['english', 'lowongan', 'tenaga', 'magang', 'bidan', 'klinik', 'bersalin', 'bidan', 'sri', 'mulyani', 'maaf', 'kont']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['english', 'lowong', 'tenaga', 'magang', 'bidan', 'klinik', 'salin', 'bidan', 'sri', 'mulyani', 'maaf', 'kont']</t>
         </is>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21626</v>
+        <v>25180</v>
       </c>
       <c r="C58" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,17 +2793,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['nekadku', 'hari', 'ini', 'baca', 'puisi', 'di', 'depan', 'sri', 'mulyani', 'hari', 'ini', 'seluruh', 'eselon', 'kantor', 'punya']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['nekadku', 'baca', 'puisi', 'sri', 'mulyani', 'eselon', 'kantor', 'pu']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['nekad', 'baca', 'puisi', 'sri', 'mulyani', 'eselon', 'kantor', 'pu']</t>
+          <t>['nekadku', 'baca', 'puisi', 'sri', 'mulyani', 'eselon', 'kantor']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['nekad', 'baca', 'puisi', 'sri', 'mulyani', 'eselon', 'kantor']</t>
         </is>
       </c>
     </row>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21627</v>
+        <v>25181</v>
       </c>
       <c r="C59" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,17 +2834,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['sri, mulyani', 'wallpaper']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['srimulyani', 'wallpaper']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['srimulyani', 'wallpaper']</t>
+          <t>['sri, mulyani', 'wallpaper']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['sri mulyani', 'wallpaper']</t>
         </is>
       </c>
     </row>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21628</v>
+        <v>25182</v>
       </c>
       <c r="C60" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2580,15 +2875,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['presiden', 'jokowi', 'beda', 'pilihan', 'tak', 'apa', 'setelah', 'itu', 'rukun', 'semarang', 'presiden', 'joko', 'wid']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['presiden', 'jokowi', 'beda', 'pilihan', 'rukun', 'semarang', 'presiden', 'joko', 'wid']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['presiden', 'jokowi', 'beda', 'pilih', 'rukun', 'semarang', 'presiden', 'joko', 'wid']</t>
         </is>
@@ -2599,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21629</v>
+        <v>25183</v>
       </c>
       <c r="C61" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2616,15 +2916,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['sri', 'mulyani', 'pergoki', 'dua', 'orang', 'lelaki', 'yang', 'sedang', 'berbuat', 'hal', 'tak', 'lazim', 'di', 'tengah', 'keramaian']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>['sri', 'mulyani', 'pergoki', 'orang', 'lelaki', 'berbuat', 'lazim', 'keramaian']</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>['sri', 'mulyani', 'pergok', 'orang', 'lelaki', 'buat', 'lazim', 'ramai']</t>
         </is>
@@ -2635,10 +2940,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21630</v>
+        <v>25184</v>
       </c>
       <c r="C62" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2652,15 +2957,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['gunung', 'agung', 'erupsi', 'pertemuan', 'imfworld', 'bank', 'tetap', 'di', 'bali', 'viva', 'menteri', 'koordinato']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>['gunung', 'agung', 'erupsi', 'pertemuan', 'imfworld', 'bank', 'bali', 'viva', 'menteri', 'koordinato']</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>['gunung', 'agung', 'erupsi', 'temu', 'imfworld', 'bank', 'bal', 'viva', 'menteri', 'koordinato']</t>
         </is>
@@ -2671,10 +2981,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21631</v>
+        <v>25185</v>
       </c>
       <c r="C63" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2688,17 +2998,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['aduh', 'bu', 'sri', 'mulyani', 'masa', 'gaji', 'pegawai, negeri, sipil', 'harus', 'terlambat', 'sih', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['aduh', 'bu', 'sri', 'mulyani', 'gaji', 'pns', 'terlambat', 'jakarta']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['aduh', 'bu', 'sri', 'mulyani', 'gaji', 'pns', 'lambat', 'jakarta']</t>
+          <t>['aduh', 'bu', 'sri', 'mulyani', 'gaji', 'pegawai, negeri, sipil', 'terlambat', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['aduh', 'bu', 'sri', 'mulyani', 'gaji', 'pegawai negeri sipil', 'lambat', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2707,10 +3022,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21632</v>
+        <v>25186</v>
       </c>
       <c r="C64" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2724,15 +3039,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['dikebut', 'proyek', 'underpass', 'ngurah', 'rai', 'dicek', 'menteri', 'jokowi', 'jakarta', 'kementerian', 'pup']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['dikebut', 'proyek', 'underpass', 'ngurah', 'rai', 'dicek', 'menteri', 'jokowi', 'jakarta', 'kementerian', 'pup']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['kebut', 'proyek', 'underpass', 'ngurah', 'rai', 'cek', 'menteri', 'jokowi', 'jakarta', 'menteri', 'pup']</t>
         </is>
@@ -2743,10 +3063,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21633</v>
+        <v>25187</v>
       </c>
       <c r="C65" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2760,17 +3080,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['momen', 'murid', 'sekolah, dasar', 'basuh', 'kaki', 'ibu', 'di', 'hari', 'ibu', 'tangerang', 'peringatan', 'hari', 'ibu', 'yang', 'jatuh']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['momen', 'murid', 'sd', 'basuh', 'kaki', 'tangerang', 'peringatan', 'jatuh']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['momen', 'murid', 'sd', 'basuh', 'kaki', 'tangerang', 'ingat', 'jatuh']</t>
+          <t>['momen', 'murid', 'sekolah, dasar', 'basuh', 'kaki', 'tangerang', 'peringatan', 'jatuh']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['momen', 'murid', 'sekolah dasar', 'basuh', 'kaki', 'tangerang', 'ingat', 'jatuh']</t>
         </is>
       </c>
     </row>
@@ -2779,10 +3104,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21634</v>
+        <v>25188</v>
       </c>
       <c r="C66" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2796,17 +3121,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['kata', 'pimpinan', 'komisi, pemberantasan, korupsi', 'soal', 'nama', 'politikus', 'hilang', 'di', 'dakwaan', 'novanto', 'jakarta', 'wakil', 'ketua']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['pimpinan', 'kpk', 'nama', 'politikus', 'hilang', 'dakwaan', 'novanto', 'jakarta', 'wakil', 'ketua']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['pimpin', 'kpk', 'nama', 'politikus', 'hilang', 'dakwa', 'novanto', 'jakarta', 'wakil', 'ketua']</t>
+          <t>['pimpinan', 'komisi, pemberantasan, korupsi', 'nama', 'politikus', 'hilang', 'dakwaan', 'novanto', 'jakarta', 'wakil', 'ketua']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['pimpin', 'komisi berantas korupsi', 'nama', 'politikus', 'hilang', 'dakwa', 'novanto', 'jakarta', 'wakil', 'ketua']</t>
         </is>
       </c>
     </row>
@@ -2815,10 +3145,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21635</v>
+        <v>25189</v>
       </c>
       <c r="C67" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2832,15 +3162,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['cantiknya', 'air', 'mancur', 'menari', 'di', 'taman', 'pelangi', 'jurug', 'solo', 'solo', 'para', 'pengunjung', 'memper']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['cantiknya', 'air', 'mancur', 'menari', 'taman', 'pelangi', 'jurug', 'solo', 'solo', 'pengunjung', 'memper']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['cantik', 'air', 'mancur', 'tari', 'taman', 'pelangi', 'jurug', 'solo', 'solo', 'unjung', 'memper']</t>
         </is>
@@ -2851,10 +3186,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21636</v>
+        <v>25190</v>
       </c>
       <c r="C68" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2868,17 +3203,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['bakal', 'calon, wakil, gubernur', 'anas', 'bicara', 'visi', 'transportasi', 'udara', 'di', 'jawa, timur', 'banyuwangi', 'bakal', 'calon, wakil, gubernur']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['cawagub', 'anas', 'bicara', 'visi', 'transportasi', 'udara', 'jatim', 'banyuwangi', 'cawagub']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['cawagub', 'anas', 'bicara', 'visi', 'transportasi', 'udara', 'jatim', 'banyuwangi', 'cawagub']</t>
+          <t>['calon, wakil, gubernur', 'anas', 'bicara', 'visi', 'transportasi', 'udara', 'jawa, timur', 'banyuwangi', 'calon, wakil, gubernur']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['calon wakil gubernur', 'anas', 'bicara', 'visi', 'transportasi', 'udara', 'jawa timur', 'banyuwangi', 'calon wakil gubernur']</t>
         </is>
       </c>
     </row>
@@ -2887,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21637</v>
+        <v>25191</v>
       </c>
       <c r="C69" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2904,15 +3244,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['jelang', 'natal', 'gereja', 'di', 'sleman', 'mendapat', 'prioritas', 'pengamanan', 'sleman', 'sebanyak']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['jelang', 'natal', 'gereja', 'sleman', 'prioritas', 'pengamanan', 'sleman']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['jelang', 'natal', 'gereja', 'sleman', 'prioritas', 'aman', 'sleman']</t>
         </is>
@@ -2923,10 +3268,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21638</v>
+        <v>25192</v>
       </c>
       <c r="C70" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2940,15 +3285,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['tiket', 'kereta', 'api', 'libur', 'natal', 'dan', 'tahun', 'baru', 'ludes', 'terjual', 'bandung', 'seluruh', 'tiket', 'ker']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['tiket', 'kereta', 'api', 'libur', 'natal', 'ludes', 'terjual', 'bandung', 'tiket', 'ker']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['tiket', 'kereta', 'api', 'libur', 'natal', 'ludes', 'jual', 'bandung', 'tiket', 'ker']</t>
         </is>
@@ -2959,10 +3309,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21639</v>
+        <v>25193</v>
       </c>
       <c r="C71" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2976,15 +3326,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['penjelasan', 'al', 'azhar', 'soal', 'viral', 'mahasiswi', 'dikeluarkan', 'karena', 'bertato', 'jakarta', 'kabar']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['penjelasan', 'al', 'azhar', 'viral', 'mahasiswi', 'dikeluarkan', 'bertato', 'jakarta', 'kabar']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['jelas', 'al', 'azhar', 'viral', 'mahasiswi', 'keluar', 'tato', 'jakarta', 'kabar']</t>
         </is>
@@ -2995,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21640</v>
+        <v>25194</v>
       </c>
       <c r="C72" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3012,15 +3367,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['contraflow', 'di', 'tol', 'cikarut', 'jalur', 'cikampek', 'arah', 'jakarta', 'tersendat', 'jakarta', 'petugas', 'ke']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['contraflow', 'tol', 'cikarut', 'jalur', 'cikampek', 'arah', 'jakarta', 'tersendat', 'jakarta', 'petugas']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['contraflow', 'tol', 'cikarut', 'jalur', 'cikampek', 'arah', 'jakarta', 'sendat', 'jakarta', 'tugas']</t>
         </is>
@@ -3031,10 +3391,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21641</v>
+        <v>25195</v>
       </c>
       <c r="C73" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3048,15 +3408,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['kakorlantas', 'tol', 'brexit', 'ramai', 'lancar', 'jakarta', 'jalur', 'pintu', 'keluar', 'tol', 'brebes', 'timur']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['kakorlantas', 'tol', 'brexit', 'ramai', 'lancar', 'jakarta', 'jalur', 'pintu', 'tol', 'brebes', 'timur']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['kakorlantas', 'tol', 'brexit', 'ramai', 'lancar', 'jakarta', 'jalur', 'pintu', 'tol', 'brebes', 'timur']</t>
         </is>
@@ -3067,10 +3432,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21642</v>
+        <v>25196</v>
       </c>
       <c r="C74" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3084,17 +3449,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['menteri, perekonomian', 'luhut', 'ekonomi', 'bali', 'akan', 'rebound', 'sendiri', 'jakarta', 'cnn', 'indonesia', 'pemerintah', 'me']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['menko', 'luhut', 'ekonomi', 'bali', 'rebound', 'jakarta', 'cnn', 'indonesia', 'pemerintah', 'me']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['menko', 'luhut', 'ekonomi', 'bal', 'rebound', 'jakarta', 'cnn', 'indonesia', 'perintah', 'me']</t>
+          <t>['menteri, perekonomian', 'luhut', 'ekonomi', 'bali', 'rebound', 'jakarta', 'cnn', 'indonesia', 'pemerintah', 'me']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['menteri ekonomi', 'luhut', 'ekonomi', 'bal', 'rebound', 'jakarta', 'cnn', 'indonesia', 'perintah', 'me']</t>
         </is>
       </c>
     </row>
@@ -3103,10 +3473,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21643</v>
+        <v>25197</v>
       </c>
       <c r="C75" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3120,15 +3490,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['diduga', 'tipu', 'pendaftar', 'umrah', 'pimpinan', 'hannien', 'tour', 'ditangkap', 'dua', 'pimpinan', 'hanni']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['diduga', 'tipu', 'pendaftar', 'umrah', 'pimpinan', 'hannien', 'tour', 'ditangkap', 'pimpinan', 'hanni']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>['duga', 'tipu', 'daftar', 'umrah', 'pimpin', 'hannien', 'tour', 'tangkap', 'pimpin', 'hanni']</t>
         </is>
@@ -3139,10 +3514,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21644</v>
+        <v>25198</v>
       </c>
       <c r="C76" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3156,17 +3531,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['lalu, lintas', 'puncak', 'padat', 'di', 'libur', 'natal', 'polisi', 'berlakukan', 'satu', 'arah', 'jakarta', 'terjadi', 'kepa']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['lalin', 'puncak', 'padat', 'libur', 'natal', 'polisi', 'berlakukan', 'arah', 'jakarta', 'kepa']</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['lalin', 'puncak', 'padat', 'libur', 'natal', 'polisi', 'laku', 'arah', 'jakarta', 'kepa']</t>
+          <t>['lalu, lintas', 'puncak', 'padat', 'libur', 'natal', 'polisi', 'berlakukan', 'arah', 'jakarta', 'kepa']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['lalu lintas', 'puncak', 'padat', 'libur', 'natal', 'polisi', 'laku', 'arah', 'jakarta', 'kepa']</t>
         </is>
       </c>
     </row>
@@ -3175,10 +3555,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21645</v>
+        <v>25199</v>
       </c>
       <c r="C77" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3192,17 +3572,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['sandi', 'omzet', 'pukul', 'naik', 'kali', 'lipat', 'pasti', 'rebutanlah', 'jakarta', 'wakil', 'gubernur', 'daerah, khusus, ibukota', 'jak']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['sandi', 'omzet', 'pkl', 'kali', 'lipat', 'rebutanlah', 'jakarta', 'wakil', 'gubernur', 'dki', 'jak']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['sandi', 'omzet', 'pkl', 'kali', 'lipat', 'rebut', 'jakarta', 'wakil', 'gubernur', 'dki', 'jak']</t>
+          <t>['sandi', 'omzet', 'kali', 'lipat', 'rebutanlah', 'jakarta', 'wakil', 'gubernur', 'daerah, khusus, ibukota', 'jak']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['sandi', 'omzet', 'kali', 'lipat', 'rebut', 'jakarta', 'wakil', 'gubernur', 'daerah khusus ibukota', 'jak']</t>
         </is>
       </c>
     </row>
@@ -3211,10 +3596,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21646</v>
+        <v>25200</v>
       </c>
       <c r="C78" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3228,15 +3613,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['video', 'dua', 'pria', 'sedang', 'kasmaran', 'di', 'atas', 'motor', 'diduga', 'lgbt', 'dilabrak', 'seorang', 'perempuan']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['video', 'pria', 'kasmaran', 'motor', 'diduga', 'lgbt', 'dilabrak', 'perempuan']</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>['video', 'pria', 'kasmaran', 'motor', 'duga', 'lgbt', 'labrak', 'perempuan']</t>
         </is>
@@ -3247,10 +3637,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21647</v>
+        <v>25201</v>
       </c>
       <c r="C79" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3264,15 +3654,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['trump', 'ancam', 'negara', 'pro', 'palestina', 'sri', 'mulyani', 'ri', 'tak', 'pengaruh', 'bantul', 'presiden', 'amer']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>['trump', 'ancam', 'negara', 'pro', 'palestina', 'sri', 'mulyani', 'ri', 'pengaruh', 'bantul', 'presiden', 'amer']</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>['trump', 'ancam', 'negara', 'pro', 'palestina', 'sri', 'mulyani', 'ri', 'pengaruh', 'bantul', 'presiden', 'amer']</t>
         </is>
@@ -3283,10 +3678,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21648</v>
+        <v>25202</v>
       </c>
       <c r="C80" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3300,15 +3695,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['business', 'shot', 'indonesia', 'naik', 'kelas', 'kerja', 'keras', 'hasilkan', 'kepercayaan', 'jakarta', 'lemba']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['business', 'shot', 'indonesia', 'kelas', 'kerja', 'keras', 'hasilkan', 'kepercayaan', 'jakarta', 'lemba']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['business', 'shot', 'indonesia', 'kelas', 'kerja', 'keras', 'hasil', 'percaya', 'jakarta', 'lemba']</t>
         </is>
@@ -3319,10 +3719,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21649</v>
+        <v>25203</v>
       </c>
       <c r="C81" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3336,15 +3736,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['menteri', 'basuki', 'cek', 'progres', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'jakarta', 'pos', 'kota', 'kem']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['menteri', 'basuki', 'cek', 'progres', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'jakarta', 'pos', 'kota', 'kem']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['menteri', 'basuki', 'cek', 'progres', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'jakarta', 'pos', 'kota', 'kem']</t>
         </is>
@@ -3355,10 +3760,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21650</v>
+        <v>25204</v>
       </c>
       <c r="C82" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3372,15 +3777,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['sri', 'mulyani', 'menggambar', 'dipandu', 'pak', 'tino', 'sidin', 'seperti', 'apa', 'hasilnya', 'bantul', 'menteri']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['sri', 'mulyani', 'menggambar', 'dipandu', 'tino', 'sidin', 'hasilnya', 'bantul', 'menteri']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['sri', 'mulyani', 'gambar', 'pandu', 'tino', 'sidin', 'hasil', 'bantul', 'menteri']</t>
         </is>
@@ -3391,10 +3801,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21651</v>
+        <v>25205</v>
       </c>
       <c r="C83" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3408,15 +3818,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['gunung', 'agung', 'kembali', 'erupsi', 'sempat', 'semburkan', 'asap', 'km', 'jakarta', 'gunung', 'agung', 'di']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['gunung', 'agung', 'erupsi', 'semburkan', 'asap', 'km', 'jakarta', 'gunung', 'agung']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['gunung', 'agung', 'erupsi', 'sembur', 'asap', 'km', 'jakarta', 'gunung', 'agung']</t>
         </is>
@@ -3427,10 +3842,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21652</v>
+        <v>25206</v>
       </c>
       <c r="C84" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3444,15 +3859,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['sri', 'mulyani', 'optimis', 'tahun', 'politik', 'tak', 'ganggu', 'perekonomian', 'fight', 'back', 'against', 'spammers']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>['sri', 'mulyani', 'optimis', 'politik', 'ganggu', 'perekonomian', 'fight', 'back', 'against', 'spammers']</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>['sri', 'mulyani', 'optimis', 'politik', 'ganggu', 'ekonomi', 'fight', 'back', 'against', 'spammers']</t>
         </is>
@@ -3463,10 +3883,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21653</v>
+        <v>25207</v>
       </c>
       <c r="C85" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3480,15 +3900,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['video', 'labrak', 'gay', 'di', 'kalibata', 'viral', 'ini', 'kata', 'sri', 'mulyani', 'pojoksatuid', 'jakarta', 'pemi']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['video', 'labrak', 'gay', 'kalibata', 'viral', 'sri', 'mulyani', 'pojoksatuid', 'jakarta', 'pemi']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['video', 'labrak', 'gay', 'kalibata', 'viral', 'sri', 'mulyani', 'pojoksatuid', 'jakarta', 'mi']</t>
         </is>
@@ -3499,10 +3924,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21654</v>
+        <v>25208</v>
       </c>
       <c r="C86" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3516,15 +3941,20 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['viral', 'perempuan', 'tegur', 'pria', 'yang', 'bermesraan', 'di', 'tengah', 'jalan', 'foto', 'dok', 'facebook', 'sri']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>['viral', 'perempuan', 'tegur', 'pria', 'bermesraan', 'jalan', 'foto', 'dok', 'facebook', 'sri']</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>['viral', 'perempuan', 'tegur', 'pria', 'mesra', 'jalan', 'foto', 'dok', 'facebook', 'sri']</t>
         </is>
@@ -3535,10 +3965,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21655</v>
+        <v>25209</v>
       </c>
       <c r="C87" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3552,17 +3982,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['kurangi', 'ketergantungan', 'dolar', 'as', 'menkeu', 'ingin', 'ekonomi', 'ri', 'stabil', 'sebelumnya', 'bank', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['kurangi', 'ketergantungan', 'dolar', 'as', 'menkeu', 'ekonomi', 'ri', 'stabil', 'bank', 'indo']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['kurang', 'gantung', 'dolar', 'as', 'menkeu', 'ekonomi', 'ri', 'stabil', 'bank', 'indo']</t>
+          <t>['kurangi', 'ketergantungan', 'dolar', 'as', 'menkeu', 'ekonomi', 'ri', 'stabil', 'bank', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['kurang', 'gantung', 'dolar', 'as', 'menkeu', 'ekonomi', 'ri', 'stabil', 'bank', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3571,10 +4006,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21656</v>
+        <v>25210</v>
       </c>
       <c r="C88" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3588,15 +4023,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['prima', 'desak', 'jokowi', 'pecat', 'tim', 'ekonomi', 'sejumlah', 'massa', 'yang', 'tergabung', 'dalam', 'perhimpunan']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['prima', 'desak', 'jokowi', 'pecat', 'tim', 'ekonomi', 'massa', 'tergabung', 'perhimpunan']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['prima', 'desak', 'jokowi', 'pecat', 'tim', 'ekonomi', 'massa', 'gabung', 'himpun']</t>
         </is>
@@ -3607,10 +4047,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21657</v>
+        <v>25211</v>
       </c>
       <c r="C89" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3624,15 +4064,20 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['panitia', 'imfwb', 'as', 'ke', 'bali', 'januari', 'skalanews', 'menteri', 'keuangan', 'sri', 'mulyani', 'indra']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>['panitia', 'imfwb', 'as', 'bali', 'januari', 'skalanews', 'menteri', 'keuangan', 'sri', 'mulyani', 'indra']</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>['panitia', 'imfwb', 'as', 'bal', 'januari', 'skalanews', 'menteri', 'uang', 'sri', 'mulyani', 'indra']</t>
         </is>
@@ -3643,10 +4088,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21658</v>
+        <v>25212</v>
       </c>
       <c r="C90" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3660,15 +4105,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['luhut', 'agus', 'dan', 'sri', 'mulyani', 'dekati', 'gunung', 'agung', 'inilahcom', 'karangasem', 'panita', 'nasi']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>['luhut', 'agus', 'sri', 'mulyani', 'dekati', 'gunung', 'agung', 'inilahcom', 'karangasem', 'panita', 'nasi']</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>['luhut', 'agus', 'sri', 'mulyani', 'dekat', 'gunung', 'agung', 'inilahcom', 'karangasem', 'panita', 'nasi']</t>
         </is>
@@ -3679,10 +4129,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21659</v>
+        <v>25213</v>
       </c>
       <c r="C91" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3696,17 +4146,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['menteri, perekonomian', 'luhut', 'pastikan', 'am', 'imfwbg', 'tetap', 'diselenggarakan', 'di', 'bali', 'menteri, perekonomian', 'kemaritiman', 'ri']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['menko', 'luhut', 'pastikan', 'am', 'imfwbg', 'diselenggarakan', 'bali', 'menko', 'kemaritiman', 'ri']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['menko', 'luhut', 'pasti', 'am', 'imfwbg', 'selenggara', 'bal', 'menko', 'maritim', 'ri']</t>
+          <t>['menteri, perekonomian', 'luhut', 'pastikan', 'am', 'imfwbg', 'diselenggarakan', 'bali', 'menteri, perekonomian', 'kemaritiman', 'ri']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['menteri ekonomi', 'luhut', 'pasti', 'am', 'imfwbg', 'selenggara', 'bal', 'menteri ekonomi', 'maritim', 'ri']</t>
         </is>
       </c>
     </row>
@@ -3715,10 +4170,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21660</v>
+        <v>25214</v>
       </c>
       <c r="C92" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3732,17 +4187,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['pemerintah', 'pastikan', 'pertemuan', 'besar', 'imfworld', 'bank', 'tetap', 'digelar', 'di', 'bali', 'kabar']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['pemerintah', 'pastikan', 'pertemuan', 'imfworld', 'bank', 'digelar', 'bali', 'kbr']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['perintah', 'pasti', 'temu', 'imfworld', 'bank', 'gelar', 'bal', 'kbr']</t>
+          <t>['pemerintah', 'pastikan', 'pertemuan', 'imfworld', 'bank', 'digelar', 'bali', 'kabar']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['perintah', 'pasti', 'temu', 'imfworld', 'bank', 'gelar', 'bal', 'kabar']</t>
         </is>
       </c>
     </row>
@@ -3751,10 +4211,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21661</v>
+        <v>25215</v>
       </c>
       <c r="C93" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3768,15 +4228,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['panitia', 'annual', 'meeting', 'imfwb', 'hadir', 'di', 'bali', 'pantau', 'kondisi', 'gunung', 'agung', 'menteri', 'keu']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>['panitia', 'annual', 'meeting', 'imfwb', 'hadir', 'bali', 'pantau', 'kondisi', 'gunung', 'agung', 'menteri', 'keu']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>['panitia', 'annual', 'meeting', 'imfwb', 'hadir', 'bal', 'pantau', 'kondisi', 'gunung', 'agung', 'menteri', 'keu']</t>
         </is>
@@ -3787,10 +4252,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21662</v>
+        <v>25216</v>
       </c>
       <c r="C94" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3804,17 +4269,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['menteri', 'luhut', 'dan', 'sri', 'mulyani', 'tinjau', 'pos', 'pengamatan', 'gunung', 'agung', 'menteri, perekonomian', 'maritim', 'luhu']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['menteri', 'luhut', 'sri', 'mulyani', 'tinjau', 'pos', 'pengamatan', 'gunung', 'agung', 'menko', 'maritim', 'luhu']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['menteri', 'luhut', 'sri', 'mulyani', 'tinjau', 'pos', 'amat', 'gunung', 'agung', 'menko', 'maritim', 'luhu']</t>
+          <t>['menteri', 'luhut', 'sri', 'mulyani', 'tinjau', 'pos', 'pengamatan', 'gunung', 'agung', 'menteri, perekonomian', 'maritim', 'luhu']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['menteri', 'luhut', 'sri', 'mulyani', 'tinjau', 'pos', 'amat', 'gunung', 'agung', 'menteri ekonomi', 'maritim', 'luhu']</t>
         </is>
       </c>
     </row>
@@ -3823,10 +4293,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21663</v>
+        <v>25217</v>
       </c>
       <c r="C95" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3840,15 +4310,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['perwakilan', 'imfwb', 'bakal', 'ke', 'bali', 'pantau', 'kondisi', 'gunung', 'agung', 'bali', 'menteri', 'keuangan']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['perwakilan', 'imfwb', 'bali', 'pantau', 'kondisi', 'gunung', 'agung', 'bali', 'menteri', 'keuangan']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['wakil', 'imfwb', 'bal', 'pantau', 'kondisi', 'gunung', 'agung', 'bal', 'menteri', 'uang']</t>
         </is>
@@ -3859,10 +4334,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21664</v>
+        <v>25218</v>
       </c>
       <c r="C96" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3876,17 +4351,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['menteri', 'pekerjaan, umum, dan, perumahan, rakyat', 'tinjau', 'pembangunan', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'menteri', 'pekerjaan']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['menteri', 'pupr', 'tinjau', 'pembangunan', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'menteri', 'pekerjaan']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['menteri', 'pupr', 'tinjau', 'bangun', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'menteri', 'kerja']</t>
+          <t>['menteri', 'pekerjaan, umum, dan, perumahan, rakyat', 'tinjau', 'pembangunan', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'menteri', 'pekerjaan']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['menteri', 'kerja umum dan rumah rakyat', 'tinjau', 'bangun', 'underpass', 'simpang', 'tugu', 'ngurah', 'rai', 'menteri', 'kerja']</t>
         </is>
       </c>
     </row>
@@ -3895,10 +4375,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21665</v>
+        <v>25219</v>
       </c>
       <c r="C97" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3912,17 +4392,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['sri', 'mulyani', 'jadi', 'vlogger', 'sambut', 'calon, pegawai, negeri, sipil', 'kementerian, keuangan', 'anugerah', 'perkasa', 'cnn', 'indone']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['sri', 'mulyani', 'vlogger', 'sambut', 'cpns', 'kemenkeu', 'anugerah', 'perkasa', 'cnn', 'indone']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['sri', 'mulyani', 'vlogger', 'sambut', 'cpns', 'kemenkeu', 'anugerah', 'perkasa', 'cnn', 'indone']</t>
+          <t>['sri', 'mulyani', 'vlogger', 'sambut', 'calon, pegawai, negeri, sipil', 'kementerian, keuangan', 'anugerah', 'perkasa', 'cnn', 'indone']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['sri', 'mulyani', 'vlogger', 'sambut', 'calon pegawai negeri sipil', 'menteri uang', 'anugerah', 'perkasa', 'cnn', 'indone']</t>
         </is>
       </c>
     </row>
@@ -3931,10 +4416,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21666</v>
+        <v>25220</v>
       </c>
       <c r="C98" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3948,17 +4433,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['menteri, perekonomian', 'luhut', 'bali', 'tetap', 'jadi', 'tuan', 'rumah', 'forum', 'imfworld', 'bank', 'agustiyanti', 'cnn', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['menko', 'luhut', 'bali', 'tuan', 'rumah', 'forum', 'imfworld', 'bank', 'agustiyanti', 'cnn', 'indo']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['menko', 'luhut', 'bal', 'tuan', 'rumah', 'forum', 'imfworld', 'bank', 'agustiyanti', 'cnn', 'indo']</t>
+          <t>['menteri, perekonomian', 'luhut', 'bali', 'tuan', 'rumah', 'forum', 'imfworld', 'bank', 'agustiyanti', 'cnn', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['menteri ekonomi', 'luhut', 'bal', 'tuan', 'rumah', 'forum', 'imfworld', 'bank', 'agustiyanti', 'cnn', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3967,10 +4457,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21667</v>
+        <v>25221</v>
       </c>
       <c r="C99" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3984,17 +4474,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['menteri', 'sri', 'mulyani', 'datangi', 'pos', 'berjarak', 'km', 'dari', 'gunung', 'agung', 'menteri, perekonomian', 'kemaritiman']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['menteri', 'sri', 'mulyani', 'datangi', 'pos', 'berjarak', 'km', 'gunung', 'agung', 'menko', 'kemaritiman']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['menteri', 'sri', 'mulyani', 'datang', 'pos', 'jarak', 'km', 'gunung', 'agung', 'menko', 'maritim']</t>
+          <t>['menteri', 'sri', 'mulyani', 'datangi', 'pos', 'berjarak', 'km', 'gunung', 'agung', 'menteri, perekonomian', 'kemaritiman']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['menteri', 'sri', 'mulyani', 'datang', 'pos', 'jarak', 'km', 'gunung', 'agung', 'menteri ekonomi', 'maritim']</t>
         </is>
       </c>
     </row>
@@ -4003,10 +4498,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21668</v>
+        <v>25222</v>
       </c>
       <c r="C100" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4020,15 +4515,20 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['mengintip', 'isi', 'tas', 'sri', 'mulyani', 'dari', 'lipstik', 'hingga', 'buku', 'yasin', 'panitia', 'nasional', 'annu']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>['mengintip', 'isi', 'tas', 'sri', 'mulyani', 'lipstik', 'buku', 'yasin', 'panitia', 'nasional', 'annu']</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>['intip', 'isi', 'tas', 'sri', 'mulyani', 'lipstik', 'buku', 'yasin', 'panitia', 'nasional', 'annu']</t>
         </is>
@@ -4039,10 +4539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21669</v>
+        <v>25223</v>
       </c>
       <c r="C101" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4056,17 +4556,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['panitia', 'imfworld', 'bank', 'ke', 'bali', 'januari', 'sri', 'mulyani', 'hapus', 'citra', 'bali', 'tak', 'aman']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['panitia', 'imfworld', 'bank', 'bali', 'januari', 'sri', 'mulyani', 'hapus', 'image', 'bali', 'aman']</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['panitia', 'imfworld', 'bank', 'bal', 'januari', 'sri', 'mulyani', 'hapus', 'image', 'bal', 'aman']</t>
+          <t>['panitia', 'imfworld', 'bank', 'bali', 'januari', 'sri', 'mulyani', 'hapus', 'citra', 'bali', 'aman']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['panitia', 'imfworld', 'bank', 'bal', 'januari', 'sri', 'mulyani', 'hapus', 'citra', 'bal', 'aman']</t>
         </is>
       </c>
     </row>
